--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="235">
   <si>
     <t>nom</t>
   </si>
@@ -64,6 +64,24 @@
     <t>Administrareur</t>
   </si>
   <si>
+    <t>PROF006</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>PROF002</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>PROF030</t>
+  </si>
+  <si>
+    <t>Ventes</t>
+  </si>
+  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -85,12 +103,33 @@
     <t>Administrateur</t>
   </si>
   <si>
+    <t>PROF007</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>PROF031</t>
+  </si>
+  <si>
+    <t>PROF032</t>
+  </si>
+  <si>
     <t>Charlie</t>
   </si>
   <si>
     <t>C24680</t>
   </si>
   <si>
+    <t>PROF033</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>PROF005</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -100,21 +139,12 @@
     <t>ENT003</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>P004</t>
   </si>
   <si>
     <t>Marketing Analyst</t>
   </si>
   <si>
-    <t>PROF002</t>
-  </si>
-  <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
     <t>Eve</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t>Invité</t>
   </si>
   <si>
+    <t>PROF023</t>
+  </si>
+  <si>
     <t>Frank</t>
   </si>
   <si>
@@ -163,9 +196,6 @@
     <t>I20983</t>
   </si>
   <si>
-    <t>PROF005</t>
-  </si>
-  <si>
     <t>Jack</t>
   </si>
   <si>
@@ -199,12 +229,6 @@
     <t>M61234</t>
   </si>
   <si>
-    <t>PROF006</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Noah</t>
   </si>
   <si>
@@ -220,12 +244,6 @@
     <t>O72516</t>
   </si>
   <si>
-    <t>PROF007</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -265,6 +283,15 @@
     <t>T94201</t>
   </si>
   <si>
+    <t>PROF016</t>
+  </si>
+  <si>
+    <t>PROF028</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>Uma</t>
   </si>
   <si>
@@ -274,9 +301,6 @@
     <t>PROF010</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
@@ -301,6 +325,9 @@
     <t>X62918</t>
   </si>
   <si>
+    <t>PROF020</t>
+  </si>
+  <si>
     <t>Yasmine</t>
   </si>
   <si>
@@ -319,9 +346,6 @@
     <t>PROF013</t>
   </si>
   <si>
-    <t>Ventes</t>
-  </si>
-  <si>
     <t>Alexandre</t>
   </si>
   <si>
@@ -373,6 +397,10 @@
     <t>IT Specialist</t>
   </si>
   <si>
+    <t xml:space="preserve">PROF016	Marketing
+</t>
+  </si>
+  <si>
     <t>Don</t>
   </si>
   <si>
@@ -418,9 +446,6 @@
     <t>Help Desk Specialist</t>
   </si>
   <si>
-    <t>PROF016</t>
-  </si>
-  <si>
     <t>Gael</t>
   </si>
   <si>
@@ -475,9 +500,6 @@
     <t>IT Administrator</t>
   </si>
   <si>
-    <t>PROF020</t>
-  </si>
-  <si>
     <t>Kreold</t>
   </si>
   <si>
@@ -493,6 +515,9 @@
     <t>PROF021</t>
   </si>
   <si>
+    <t>PROF029</t>
+  </si>
+  <si>
     <t>Landry</t>
   </si>
   <si>
@@ -520,9 +545,6 @@
     <t>Senior Help Desk Technician</t>
   </si>
   <si>
-    <t>PROF023</t>
-  </si>
-  <si>
     <t>Nathan</t>
   </si>
   <si>
@@ -595,9 +617,6 @@
     <t>Marketing Coordinator</t>
   </si>
   <si>
-    <t>PROF028</t>
-  </si>
-  <si>
     <t>Sabail</t>
   </si>
   <si>
@@ -610,9 +629,6 @@
     <t>Database Administrator</t>
   </si>
   <si>
-    <t>PROF029</t>
-  </si>
-  <si>
     <t>Tristan</t>
   </si>
   <si>
@@ -625,9 +641,6 @@
     <t>Technical Support</t>
   </si>
   <si>
-    <t>PROF030</t>
-  </si>
-  <si>
     <t>Ugo</t>
   </si>
   <si>
@@ -640,9 +653,6 @@
     <t>Community Manager</t>
   </si>
   <si>
-    <t>PROF031</t>
-  </si>
-  <si>
     <t>Valère</t>
   </si>
   <si>
@@ -655,9 +665,6 @@
     <t>IT Consultant</t>
   </si>
   <si>
-    <t>PROF032</t>
-  </si>
-  <si>
     <t>Wihtney</t>
   </si>
   <si>
@@ -668,9 +675,6 @@
   </si>
   <si>
     <t>Help Desk Manager</t>
-  </si>
-  <si>
-    <t>PROF033</t>
   </si>
   <si>
     <t>Xillac</t>
@@ -723,7 +727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +738,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -772,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -780,10 +790,16 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1094,21 +1110,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -1151,7 +1167,7 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1165,39 +1181,39 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1205,188 +1221,188 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1394,41 +1410,41 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
@@ -1437,91 +1453,91 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1529,107 +1545,107 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="I19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1637,188 +1653,188 @@
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="I24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1826,765 +1842,1461 @@
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>166</v>
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="G59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="I69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A73" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="I75" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A49" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="31.5" customFormat="1" s="1">
-      <c r="A50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="H77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="C78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="F78" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A79" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="292">
   <si>
     <t>nom</t>
   </si>
@@ -22,84 +22,123 @@
     <t>matricule</t>
   </si>
   <si>
+    <t>code_poste</t>
+  </si>
+  <si>
+    <t>libelle_poste</t>
+  </si>
+  <si>
+    <t>date_debut_fonction</t>
+  </si>
+  <si>
+    <t>date_fin_fonction</t>
+  </si>
+  <si>
     <t>code_entite</t>
   </si>
   <si>
     <t>libelle_entite</t>
   </si>
   <si>
-    <t>code_poste</t>
-  </si>
-  <si>
-    <t>libelle_poste</t>
-  </si>
-  <si>
     <t>code_profil</t>
   </si>
   <si>
     <t>libelle_profil</t>
   </si>
   <si>
+    <t>date_assignation</t>
+  </si>
+  <si>
+    <t>date_suspension</t>
+  </si>
+  <si>
+    <t>date_derniere_modification</t>
+  </si>
+  <si>
+    <t>date_derniere_connexion</t>
+  </si>
+  <si>
     <t>Alice</t>
   </si>
   <si>
     <t>A12345</t>
   </si>
   <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>Développeur</t>
+  </si>
+  <si>
+    <t>2013-04-04 08:00:00</t>
+  </si>
+  <si>
     <t>ENT001</t>
   </si>
   <si>
     <t>Développement</t>
   </si>
   <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>Développeur</t>
-  </si>
-  <si>
     <t>PROF001</t>
   </si>
   <si>
     <t>Administrareur</t>
   </si>
   <si>
+    <t>2020-04-04 08:00:00</t>
+  </si>
+  <si>
     <t>PROF006</t>
   </si>
   <si>
     <t>Support</t>
   </si>
   <si>
+    <t>2018-04-04 08:00:00</t>
+  </si>
+  <si>
     <t>PROF002</t>
   </si>
   <si>
     <t>Utilisateur</t>
   </si>
   <si>
+    <t>2019-04-04 08:00:00</t>
+  </si>
+  <si>
     <t>PROF030</t>
   </si>
   <si>
     <t>Ventes</t>
   </si>
   <si>
+    <t>2024-06-24 08:00:00</t>
+  </si>
+  <si>
     <t>Bob</t>
   </si>
   <si>
     <t>B67890</t>
   </si>
   <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Technicien support</t>
+  </si>
+  <si>
+    <t>2007-01-25 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 13:40:00</t>
+  </si>
+  <si>
     <t>ENT002</t>
   </si>
   <si>
     <t>Support technique</t>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>Technicien support</t>
-  </si>
-  <si>
     <t>Administrateur</t>
   </si>
   <si>
@@ -121,6 +160,9 @@
     <t>C24680</t>
   </si>
   <si>
+    <t>2012-08-16 08:00:00</t>
+  </si>
+  <si>
     <t>PROF033</t>
   </si>
   <si>
@@ -136,21 +178,27 @@
     <t>D13579</t>
   </si>
   <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>Marketing Analyst</t>
+  </si>
+  <si>
+    <t>2020-08-16 08:00:00</t>
+  </si>
+  <si>
     <t>ENT003</t>
   </si>
   <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>Marketing Analyst</t>
-  </si>
-  <si>
     <t>Eve</t>
   </si>
   <si>
     <t>E97531</t>
   </si>
   <si>
+    <t>2018-10-04 08:00:08</t>
+  </si>
+  <si>
     <t>PROF003</t>
   </si>
   <si>
@@ -172,12 +220,18 @@
     <t>Support Engineer</t>
   </si>
   <si>
+    <t>2011-09-16 08:00:00</t>
+  </si>
+  <si>
     <t>Grace</t>
   </si>
   <si>
     <t>G86420</t>
   </si>
   <si>
+    <t>2010-04-16 10:00:00</t>
+  </si>
+  <si>
     <t>PROF004</t>
   </si>
   <si>
@@ -190,18 +244,27 @@
     <t>H64208</t>
   </si>
   <si>
+    <t>2021-02-19 11:30:10</t>
+  </si>
+  <si>
     <t>Isabel</t>
   </si>
   <si>
     <t>I20983</t>
   </si>
   <si>
+    <t>2013-05-10 08:00:00</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
     <t>J70846</t>
   </si>
   <si>
+    <t>2014-12-16 08:00:00</t>
+  </si>
+  <si>
     <t>Katie</t>
   </si>
   <si>
@@ -214,6 +277,9 @@
     <t>Marketing Manager</t>
   </si>
   <si>
+    <t>2014-06-16 08:00:00</t>
+  </si>
+  <si>
     <t>Liam</t>
   </si>
   <si>
@@ -229,6 +295,9 @@
     <t>M61234</t>
   </si>
   <si>
+    <t>2011-11-16 08:00:00</t>
+  </si>
+  <si>
     <t>Noah</t>
   </si>
   <si>
@@ -238,18 +307,27 @@
     <t xml:space="preserve">Marketing Analyst </t>
   </si>
   <si>
+    <t>2023-01-03 08:00:00</t>
+  </si>
+  <si>
     <t>Olivia</t>
   </si>
   <si>
     <t>O72516</t>
   </si>
   <si>
+    <t>2011-09-16 13:00:00</t>
+  </si>
+  <si>
     <t>Peter</t>
   </si>
   <si>
     <t>P84029</t>
   </si>
   <si>
+    <t>2019-10-16 08:00:00</t>
+  </si>
+  <si>
     <t>PROF008</t>
   </si>
   <si>
@@ -259,12 +337,21 @@
     <t>Q19385</t>
   </si>
   <si>
+    <t>2002-08-17 08:00:00</t>
+  </si>
+  <si>
+    <t>2016-09-20 20:00:00</t>
+  </si>
+  <si>
     <t>Rachel</t>
   </si>
   <si>
     <t>R50763</t>
   </si>
   <si>
+    <t>2016-09-20 08:00:00</t>
+  </si>
+  <si>
     <t>PROF009</t>
   </si>
   <si>
@@ -277,12 +364,18 @@
     <t>S26754</t>
   </si>
   <si>
+    <t>2011-04-01 08:00:00</t>
+  </si>
+  <si>
     <t>Tina</t>
   </si>
   <si>
     <t>T94201</t>
   </si>
   <si>
+    <t>2013-11-25 08:00:00</t>
+  </si>
+  <si>
     <t>PROF016</t>
   </si>
   <si>
@@ -298,6 +391,9 @@
     <t>U63149</t>
   </si>
   <si>
+    <t>2019-07-03 08:00:00</t>
+  </si>
+  <si>
     <t>PROF010</t>
   </si>
   <si>
@@ -307,12 +403,18 @@
     <t>V81037</t>
   </si>
   <si>
+    <t>2021-03-11 08:00:00</t>
+  </si>
+  <si>
     <t>Wendy</t>
   </si>
   <si>
     <t>W47583</t>
   </si>
   <si>
+    <t>2002-11-01 08:00:00</t>
+  </si>
+  <si>
     <t>PROF011</t>
   </si>
   <si>
@@ -325,6 +427,9 @@
     <t>X62918</t>
   </si>
   <si>
+    <t>2013-08-15 08:00:00</t>
+  </si>
+  <si>
     <t>PROF020</t>
   </si>
   <si>
@@ -334,6 +439,9 @@
     <t>Y36481</t>
   </si>
   <si>
+    <t>2015-10-30 08:00:00</t>
+  </si>
+  <si>
     <t>PROF012</t>
   </si>
   <si>
@@ -352,36 +460,42 @@
     <t>A68978</t>
   </si>
   <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>IT Manager</t>
+  </si>
+  <si>
+    <t>2022-05-17 08:00:00</t>
+  </si>
+  <si>
     <t>ENT004</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>P007</t>
-  </si>
-  <si>
-    <t>IT Manager</t>
-  </si>
-  <si>
     <t>Brunel</t>
   </si>
   <si>
     <t>B89094</t>
   </si>
   <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>Help Desk Analyst</t>
+  </si>
+  <si>
+    <t>2012-06-14 08:00:00</t>
+  </si>
+  <si>
     <t>ENT005</t>
   </si>
   <si>
     <t>Help Desk</t>
   </si>
   <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>Help Desk Analyst</t>
-  </si>
-  <si>
     <t>PROF014</t>
   </si>
   <si>
@@ -395,30 +509,42 @@
   </si>
   <si>
     <t>IT Specialist</t>
+  </si>
+  <si>
+    <t>2006-10-16 08:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-17 18:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">PROF016	Marketing
 </t>
   </si>
   <si>
+    <t>PROF029</t>
+  </si>
+  <si>
     <t>Don</t>
   </si>
   <si>
     <t>D56851</t>
   </si>
   <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>Communications Manager</t>
+  </si>
+  <si>
+    <t>2003-02-16 08:00:00</t>
+  </si>
+  <si>
     <t>ENT006</t>
   </si>
   <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>Communications Manager</t>
-  </si>
-  <si>
     <t>PROF015</t>
   </si>
   <si>
@@ -446,6 +572,9 @@
     <t>Help Desk Specialist</t>
   </si>
   <si>
+    <t>2010-01-29 08:00:00</t>
+  </si>
+  <si>
     <t>Gael</t>
   </si>
   <si>
@@ -455,6 +584,9 @@
     <t>Social Media Manager</t>
   </si>
   <si>
+    <t>2014-05-15 08:00:00</t>
+  </si>
+  <si>
     <t>PROF017</t>
   </si>
   <si>
@@ -470,6 +602,9 @@
     <t xml:space="preserve">IT Support </t>
   </si>
   <si>
+    <t>2020-11-17 08:00:00</t>
+  </si>
+  <si>
     <t>PROF018</t>
   </si>
   <si>
@@ -485,6 +620,9 @@
     <t>Help Desk Technician</t>
   </si>
   <si>
+    <t>2016-03-06 08:00:00</t>
+  </si>
+  <si>
     <t>PROF019</t>
   </si>
   <si>
@@ -515,9 +653,6 @@
     <t>PROF021</t>
   </si>
   <si>
-    <t>PROF029</t>
-  </si>
-  <si>
     <t>Landry</t>
   </si>
   <si>
@@ -530,6 +665,9 @@
     <t>IT Analyst</t>
   </si>
   <si>
+    <t>2016-12-16 08:00:00</t>
+  </si>
+  <si>
     <t>PROF022</t>
   </si>
   <si>
@@ -545,6 +683,9 @@
     <t>Senior Help Desk Technician</t>
   </si>
   <si>
+    <t>2014-09-10 08:00:00</t>
+  </si>
+  <si>
     <t>Nathan</t>
   </si>
   <si>
@@ -557,6 +698,9 @@
     <t>Public Relations Manager</t>
   </si>
   <si>
+    <t>2020-12-16 10:00:00</t>
+  </si>
+  <si>
     <t>PROF024</t>
   </si>
   <si>
@@ -572,6 +716,9 @@
     <t>Network Administrator</t>
   </si>
   <si>
+    <t>2014-02-06 08:00:00</t>
+  </si>
+  <si>
     <t>PROF025</t>
   </si>
   <si>
@@ -587,6 +734,9 @@
     <t>Desktop Support</t>
   </si>
   <si>
+    <t>2020-08-16 10:50:10</t>
+  </si>
+  <si>
     <t>PROF026</t>
   </si>
   <si>
@@ -617,6 +767,9 @@
     <t>Marketing Coordinator</t>
   </si>
   <si>
+    <t>2014-08-26 13:40:00</t>
+  </si>
+  <si>
     <t>Sabail</t>
   </si>
   <si>
@@ -641,6 +794,9 @@
     <t>Technical Support</t>
   </si>
   <si>
+    <t>1999-08-16 08:09:00</t>
+  </si>
+  <si>
     <t>Ugo</t>
   </si>
   <si>
@@ -653,6 +809,9 @@
     <t>Community Manager</t>
   </si>
   <si>
+    <t>2001-08-16 08:40:00</t>
+  </si>
+  <si>
     <t>Valère</t>
   </si>
   <si>
@@ -677,6 +836,9 @@
     <t>Help Desk Manager</t>
   </si>
   <si>
+    <t>2007-07-04 08:00:00</t>
+  </si>
+  <si>
     <t>Xillac</t>
   </si>
   <si>
@@ -689,6 +851,9 @@
     <t>Software Developer</t>
   </si>
   <si>
+    <t>2011-04-23 08:00:00</t>
+  </si>
+  <si>
     <t>PROF034</t>
   </si>
   <si>
@@ -717,6 +882,12 @@
   </si>
   <si>
     <t>IT Security Analyst</t>
+  </si>
+  <si>
+    <t>2019-06-03 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-18 15:10:00</t>
   </si>
   <si>
     <t>PROF036</t>
@@ -782,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -790,14 +961,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -807,6 +978,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1284,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1118,13 +1292,19 @@
   <cols>
     <col min="1" max="1" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="26.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -1152,2107 +1332,3245 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2"/>
+      <c r="K25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="2"/>
+      <c r="K33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="2" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="2" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="2" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A62" s="2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="2" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="2" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="K64" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="2"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A66" s="2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="2"/>
+      <c r="K67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="2" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A70" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="2"/>
+      <c r="O70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" s="2"/>
+      <c r="K72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I73" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A74" s="2" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="2" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I76" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="2" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="2"/>
@@ -3264,6 +4582,12 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="2"/>
@@ -3275,6 +4599,12 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="2"/>
@@ -3286,6 +4616,12 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="2"/>
@@ -3297,6 +4633,12 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet SCB\Project\reHabi\tests\fichier_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -517,387 +522,386 @@
     <t>2022-05-17 18:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">PROF016	Marketing
+    <t>PROF029</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>D56851</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>Communications Manager</t>
+  </si>
+  <si>
+    <t>2003-02-16 08:00:00</t>
+  </si>
+  <si>
+    <t>ENT006</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>PROF015</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>E65420</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>IT Technician</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>F65787</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>Help Desk Specialist</t>
+  </si>
+  <si>
+    <t>2010-01-29 08:00:00</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>G78427</t>
+  </si>
+  <si>
+    <t>Social Media Manager</t>
+  </si>
+  <si>
+    <t>2014-05-15 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF017</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>H64223</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Support </t>
+  </si>
+  <si>
+    <t>2020-11-17 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF018</t>
+  </si>
+  <si>
+    <t>Illan</t>
+  </si>
+  <si>
+    <t>I673219</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>Help Desk Technician</t>
+  </si>
+  <si>
+    <t>2016-03-06 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF019</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>J09386</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>IT Administrator</t>
+  </si>
+  <si>
+    <t>Kreold</t>
+  </si>
+  <si>
+    <t>K34577</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>Communications Specialist</t>
+  </si>
+  <si>
+    <t>PROF021</t>
+  </si>
+  <si>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>L25678</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>IT Analyst</t>
+  </si>
+  <si>
+    <t>2016-12-16 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF022</t>
+  </si>
+  <si>
+    <t>Maelle</t>
+  </si>
+  <si>
+    <t>M08007</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>Senior Help Desk Technician</t>
+  </si>
+  <si>
+    <t>2014-09-10 08:00:00</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>N89321</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>Public Relations Manager</t>
+  </si>
+  <si>
+    <t>2020-12-16 10:00:00</t>
+  </si>
+  <si>
+    <t>PROF024</t>
+  </si>
+  <si>
+    <t>OLO</t>
+  </si>
+  <si>
+    <t>O07866</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>Network Administrator</t>
+  </si>
+  <si>
+    <t>2014-02-06 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF025</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>P73573</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>Desktop Support</t>
+  </si>
+  <si>
+    <t>2020-08-16 10:50:10</t>
+  </si>
+  <si>
+    <t>PROF026</t>
+  </si>
+  <si>
+    <t>Qualvin</t>
+  </si>
+  <si>
+    <t>Q87382</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Engineer </t>
+  </si>
+  <si>
+    <t>PROF027</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>R8729</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>Marketing Coordinator</t>
+  </si>
+  <si>
+    <t>2014-08-26 13:40:00</t>
+  </si>
+  <si>
+    <t>Sabail</t>
+  </si>
+  <si>
+    <t>S848726</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>T48237</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>1999-08-16 08:09:00</t>
+  </si>
+  <si>
+    <t>Ugo</t>
+  </si>
+  <si>
+    <t>U87183</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>Community Manager</t>
+  </si>
+  <si>
+    <t>2001-08-16 08:40:00</t>
+  </si>
+  <si>
+    <t>Valère</t>
+  </si>
+  <si>
+    <t>V40419</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>IT Consultant</t>
+  </si>
+  <si>
+    <t>Wihtney</t>
+  </si>
+  <si>
+    <t>W8136</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>Help Desk Manager</t>
+  </si>
+  <si>
+    <t>2007-07-04 08:00:00</t>
+  </si>
+  <si>
+    <t>Xillac</t>
+  </si>
+  <si>
+    <t>X562314</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>2011-04-23 08:00:00</t>
+  </si>
+  <si>
+    <t>PROF034</t>
+  </si>
+  <si>
+    <t>Yacine</t>
+  </si>
+  <si>
+    <t>Y019897</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>PR Specialist</t>
+  </si>
+  <si>
+    <t>PROF035</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Z80900</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>IT Security Analyst</t>
+  </si>
+  <si>
+    <t>2019-06-03 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-18 15:10:00</t>
+  </si>
+  <si>
+    <t>PROF036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF016
 </t>
-  </si>
-  <si>
-    <t>PROF029</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>D56851</t>
-  </si>
-  <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>Communications Manager</t>
-  </si>
-  <si>
-    <t>2003-02-16 08:00:00</t>
-  </si>
-  <si>
-    <t>ENT006</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>PROF015</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>E65420</t>
-  </si>
-  <si>
-    <t>P011</t>
-  </si>
-  <si>
-    <t>IT Technician</t>
-  </si>
-  <si>
-    <t>Fritz</t>
-  </si>
-  <si>
-    <t>F65787</t>
-  </si>
-  <si>
-    <t>P012</t>
-  </si>
-  <si>
-    <t>Help Desk Specialist</t>
-  </si>
-  <si>
-    <t>2010-01-29 08:00:00</t>
-  </si>
-  <si>
-    <t>Gael</t>
-  </si>
-  <si>
-    <t>G78427</t>
-  </si>
-  <si>
-    <t>Social Media Manager</t>
-  </si>
-  <si>
-    <t>2014-05-15 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF017</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>H64223</t>
-  </si>
-  <si>
-    <t>P013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Support </t>
-  </si>
-  <si>
-    <t>2020-11-17 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF018</t>
-  </si>
-  <si>
-    <t>Illan</t>
-  </si>
-  <si>
-    <t>I673219</t>
-  </si>
-  <si>
-    <t>P014</t>
-  </si>
-  <si>
-    <t>Help Desk Technician</t>
-  </si>
-  <si>
-    <t>2016-03-06 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF019</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>J09386</t>
-  </si>
-  <si>
-    <t>P015</t>
-  </si>
-  <si>
-    <t>IT Administrator</t>
-  </si>
-  <si>
-    <t>Kreold</t>
-  </si>
-  <si>
-    <t>K34577</t>
-  </si>
-  <si>
-    <t>P016</t>
-  </si>
-  <si>
-    <t>Communications Specialist</t>
-  </si>
-  <si>
-    <t>PROF021</t>
-  </si>
-  <si>
-    <t>Landry</t>
-  </si>
-  <si>
-    <t>L25678</t>
-  </si>
-  <si>
-    <t>P017</t>
-  </si>
-  <si>
-    <t>IT Analyst</t>
-  </si>
-  <si>
-    <t>2016-12-16 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF022</t>
-  </si>
-  <si>
-    <t>Maelle</t>
-  </si>
-  <si>
-    <t>M08007</t>
-  </si>
-  <si>
-    <t>P018</t>
-  </si>
-  <si>
-    <t>Senior Help Desk Technician</t>
-  </si>
-  <si>
-    <t>2014-09-10 08:00:00</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>N89321</t>
-  </si>
-  <si>
-    <t>P019</t>
-  </si>
-  <si>
-    <t>Public Relations Manager</t>
-  </si>
-  <si>
-    <t>2020-12-16 10:00:00</t>
-  </si>
-  <si>
-    <t>PROF024</t>
-  </si>
-  <si>
-    <t>OLO</t>
-  </si>
-  <si>
-    <t>O07866</t>
-  </si>
-  <si>
-    <t>P020</t>
-  </si>
-  <si>
-    <t>Network Administrator</t>
-  </si>
-  <si>
-    <t>2014-02-06 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF025</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>P73573</t>
-  </si>
-  <si>
-    <t>P021</t>
-  </si>
-  <si>
-    <t>Desktop Support</t>
-  </si>
-  <si>
-    <t>2020-08-16 10:50:10</t>
-  </si>
-  <si>
-    <t>PROF026</t>
-  </si>
-  <si>
-    <t>Qualvin</t>
-  </si>
-  <si>
-    <t>Q87382</t>
-  </si>
-  <si>
-    <t>P022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems Engineer </t>
-  </si>
-  <si>
-    <t>PROF027</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>R8729</t>
-  </si>
-  <si>
-    <t>P023</t>
-  </si>
-  <si>
-    <t>Marketing Coordinator</t>
-  </si>
-  <si>
-    <t>2014-08-26 13:40:00</t>
-  </si>
-  <si>
-    <t>Sabail</t>
-  </si>
-  <si>
-    <t>S848726</t>
-  </si>
-  <si>
-    <t>P024</t>
-  </si>
-  <si>
-    <t>Database Administrator</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>T48237</t>
-  </si>
-  <si>
-    <t>P025</t>
-  </si>
-  <si>
-    <t>Technical Support</t>
-  </si>
-  <si>
-    <t>1999-08-16 08:09:00</t>
-  </si>
-  <si>
-    <t>Ugo</t>
-  </si>
-  <si>
-    <t>U87183</t>
-  </si>
-  <si>
-    <t>P026</t>
-  </si>
-  <si>
-    <t>Community Manager</t>
-  </si>
-  <si>
-    <t>2001-08-16 08:40:00</t>
-  </si>
-  <si>
-    <t>Valère</t>
-  </si>
-  <si>
-    <t>V40419</t>
-  </si>
-  <si>
-    <t>P027</t>
-  </si>
-  <si>
-    <t>IT Consultant</t>
-  </si>
-  <si>
-    <t>Wihtney</t>
-  </si>
-  <si>
-    <t>W8136</t>
-  </si>
-  <si>
-    <t>P028</t>
-  </si>
-  <si>
-    <t>Help Desk Manager</t>
-  </si>
-  <si>
-    <t>2007-07-04 08:00:00</t>
-  </si>
-  <si>
-    <t>Xillac</t>
-  </si>
-  <si>
-    <t>X562314</t>
-  </si>
-  <si>
-    <t>P029</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>2011-04-23 08:00:00</t>
-  </si>
-  <si>
-    <t>PROF034</t>
-  </si>
-  <si>
-    <t>Yacine</t>
-  </si>
-  <si>
-    <t>Y019897</t>
-  </si>
-  <si>
-    <t>P030</t>
-  </si>
-  <si>
-    <t>PR Specialist</t>
-  </si>
-  <si>
-    <t>PROF035</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Z80900</t>
-  </si>
-  <si>
-    <t>P031</t>
-  </si>
-  <si>
-    <t>IT Security Analyst</t>
-  </si>
-  <si>
-    <t>2019-06-03 08:00:00</t>
-  </si>
-  <si>
-    <t>2021-11-18 15:10:00</t>
-  </si>
-  <si>
-    <t>PROF036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,43 +958,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1001,10 +1008,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1042,71 +1049,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,7 +1141,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1157,11 +1164,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1170,13 +1177,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1186,7 +1193,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1195,7 +1202,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1204,7 +1211,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1212,10 +1219,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1286,28 +1293,30 @@
   </sheetPr>
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1361,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1402,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1475,7 +1484,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1525,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +1568,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1602,7 +1611,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1654,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1688,7 +1697,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1740,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1772,7 +1781,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1822,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1854,7 +1863,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1904,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -1977,7 +1986,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2018,7 +2027,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2100,7 +2109,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
@@ -2141,7 +2150,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -2182,7 +2191,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -2223,7 +2232,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -2305,7 +2314,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -2387,7 +2396,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -2428,7 +2437,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
@@ -2469,7 +2478,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
@@ -2512,7 +2521,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -2594,7 +2603,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>117</v>
       </c>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>117</v>
       </c>
@@ -2676,7 +2685,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>117</v>
       </c>
@@ -2717,7 +2726,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>123</v>
       </c>
@@ -2758,7 +2767,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>127</v>
       </c>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -2840,7 +2849,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>135</v>
       </c>
@@ -2881,7 +2890,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -2922,7 +2931,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
@@ -2963,7 +2972,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>139</v>
       </c>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>146</v>
       </c>
@@ -3086,7 +3095,7 @@
       </c>
       <c r="O43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>153</v>
       </c>
@@ -3127,7 +3136,7 @@
       </c>
       <c r="O44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>161</v>
       </c>
@@ -3170,7 +3179,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>161</v>
       </c>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>161</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>152</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>50</v>
@@ -3256,7 +3265,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>161</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>152</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>134</v>
@@ -3299,59 +3308,59 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>150</v>
@@ -3364,7 +3373,7 @@
         <v>152</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>25</v>
@@ -3381,21 +3390,21 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
@@ -3411,73 +3420,73 @@
         <v>50</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O51" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
@@ -3487,38 +3496,38 @@
         <v>152</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
@@ -3528,35 +3537,35 @@
         <v>159</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>113</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>150</v>
@@ -3586,31 +3595,31 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>134</v>
@@ -3627,31 +3636,31 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>134</v>
@@ -3668,21 +3677,21 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
@@ -3692,38 +3701,38 @@
         <v>152</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="59" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
@@ -3739,73 +3748,73 @@
         <v>41</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="60" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="61" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
@@ -3815,38 +3824,38 @@
         <v>152</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>50</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="62" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
@@ -3856,38 +3865,38 @@
         <v>159</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="63" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
@@ -3903,32 +3912,32 @@
         <v>22</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="64" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
@@ -3938,45 +3947,45 @@
         <v>152</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>113</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="65" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>121</v>
@@ -3985,29 +3994,29 @@
         <v>122</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="O65" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>18</v>
@@ -4020,7 +4029,7 @@
         <v>152</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>134</v>
@@ -4037,18 +4046,18 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="67" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>18</v>
@@ -4061,7 +4070,7 @@
         <v>152</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>113</v>
@@ -4078,21 +4087,21 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="68" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
@@ -4108,39 +4117,39 @@
         <v>31</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="O68" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>44</v>
@@ -4149,29 +4158,29 @@
         <v>41</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="70" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>87</v>
@@ -4201,18 +4210,18 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>87</v>
@@ -4242,18 +4251,18 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>87</v>
@@ -4266,7 +4275,7 @@
         <v>152</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>113</v>
@@ -4283,18 +4292,18 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>87</v>
@@ -4307,7 +4316,7 @@
         <v>152</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>134</v>
@@ -4324,21 +4333,21 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="74" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
@@ -4354,32 +4363,32 @@
         <v>50</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="2" t="s">
@@ -4389,48 +4398,48 @@
         <v>152</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O75" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>113</v>
@@ -4447,28 +4456,28 @@
       </c>
       <c r="O76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>104</v>
@@ -4488,31 +4497,31 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>25</v>
@@ -4529,24 +4538,24 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="79" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>151</v>
@@ -4555,24 +4564,24 @@
         <v>152</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="80" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4589,7 +4598,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="81" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4606,7 +4615,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="82" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4623,7 +4632,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="83" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>

--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -1293,8 +1293,8 @@
   </sheetPr>
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="307">
   <si>
     <t>nom</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Alice</t>
-  </si>
-  <si>
-    <t>A12345</t>
   </si>
   <si>
     <t>P001</t>
@@ -896,6 +893,54 @@
   <si>
     <t xml:space="preserve">PROF016
 </t>
+  </si>
+  <si>
+    <t>ZIDANE</t>
+  </si>
+  <si>
+    <t>Z0735372</t>
+  </si>
+  <si>
+    <t>2019-06-03 08:00:01</t>
+  </si>
+  <si>
+    <t>A12445544444</t>
+  </si>
+  <si>
+    <t>Ateba</t>
+  </si>
+  <si>
+    <t>A67687</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>R565798</t>
+  </si>
+  <si>
+    <t>Tresor</t>
+  </si>
+  <si>
+    <t>T80910</t>
+  </si>
+  <si>
+    <t>Rachida</t>
+  </si>
+  <si>
+    <t>R4563</t>
+  </si>
+  <si>
+    <t>Balo</t>
+  </si>
+  <si>
+    <t>B77980</t>
+  </si>
+  <si>
+    <t>Fabrice</t>
+  </si>
+  <si>
+    <t>F0292</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1336,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,39 +1411,39 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1406,40 +1451,40 @@
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="2"/>
     </row>
@@ -1448,39 +1493,39 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1489,3167 +1534,3386 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="K30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="K31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I45" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="J48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="K63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I64" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K68" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I71" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I72" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="K74" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="I75" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="J78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="J79" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="3"/>
+      <c r="G80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+      <c r="M80" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="3"/>
+      <c r="G81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+      <c r="M81" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="3"/>
+      <c r="G82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="3"/>
+      <c r="G83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/fichier_test/e_e_p.xlsx
+++ b/tests/fichier_test/e_e_p.xlsx
@@ -904,9 +904,6 @@
     <t>2019-06-03 08:00:01</t>
   </si>
   <si>
-    <t>A12445544444</t>
-  </si>
-  <si>
     <t>Ateba</t>
   </si>
   <si>
@@ -941,6 +938,9 @@
   </si>
   <si>
     <t>F0292</t>
+  </si>
+  <si>
+    <t>A12445</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,7 @@
     <col min="15" max="15" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>267</v>
       </c>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>265</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>197</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>246</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>169</v>
@@ -4830,12 +4830,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>241</v>
@@ -4854,7 +4854,7 @@
         <v>151</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>49</v>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>162</v>
